--- a/化验月报汇总分类.xlsx
+++ b/化验月报汇总分类.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gskt-my.sharepoint.com/personal/yangguang_hmrd_tk/Documents/11_2025/05_燃料管理/13_入厂煤/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_CF1538B41A5113C8007DB89827F15397A88A106F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C40C6EFD-3A58-4AC8-BBCD-4E318E21BB4C}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9D20F33102FD1B3729878BBC1A82EE309C988E67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{984BCB9E-9BFF-4BAA-A8B3-DFD3CABED17D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="加权平均发热量" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="40">
   <si>
     <t>报表月份</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>2025-07</t>
+  </si>
+  <si>
+    <t>2025-08</t>
   </si>
   <si>
     <t>加权平均全水Mt</t>
@@ -541,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1233,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="C62">
-        <v>3485.6485241496639</v>
+        <v>3514.8035496071161</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1244,7 +1247,7 @@
         <v>21</v>
       </c>
       <c r="C63">
-        <v>3393.4647931654672</v>
+        <v>3466.726981435751</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -1255,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>4390.4566861424828</v>
+        <v>4482.3979576708907</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1277,7 +1280,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>4140</v>
+        <v>4210.6935291171976</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -1288,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>3511.687332149847</v>
+        <v>3423.8172556995751</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -1299,7 +1302,7 @@
         <v>22</v>
       </c>
       <c r="C68">
-        <v>2923</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1321,7 +1324,62 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>4268.7158895007369</v>
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>3871.474064179627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>3894</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1346,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2017,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="C62">
-        <v>6.6600206805004243</v>
+        <v>5.9169561240024313</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2028,7 +2086,7 @@
         <v>21</v>
       </c>
       <c r="C63">
-        <v>7.1410798860911271</v>
+        <v>6.1993974911847456</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2039,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>4.8629552568069379</v>
+        <v>4.8064661894906626</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2061,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>11.7</v>
+        <v>11.150924045691671</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2072,7 +2130,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>5.1938226086252852</v>
+        <v>5.4809782647210987</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2083,7 +2141,7 @@
         <v>22</v>
       </c>
       <c r="C68">
-        <v>9.5000000000000018</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2105,7 +2163,62 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>7.9729019974396742</v>
+        <v>7.9810016804593511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>6.2295328053938874</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>9.3000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2229,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2130,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2801,7 +2914,7 @@
         <v>15</v>
       </c>
       <c r="C62">
-        <v>0.62553957510386893</v>
+        <v>0.9714056515862125</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2812,7 +2925,7 @@
         <v>21</v>
       </c>
       <c r="C63">
-        <v>1.7969718974820139</v>
+        <v>1.9269685599498729</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2823,7 +2936,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>0.52606529644956634</v>
+        <v>0.52134791349158816</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2845,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1.93</v>
+        <v>2.0535420897193748</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2856,7 +2969,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>1.533359026102437</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2867,7 +2980,7 @@
         <v>22</v>
       </c>
       <c r="C68">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2889,7 +3002,62 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>0.90454995326441567</v>
+        <v>0.93232302546026335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>1.493904843685399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +3068,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2914,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -3585,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="C62">
-        <v>41.83</v>
+        <v>41.644153269024649</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -3596,7 +3764,7 @@
         <v>21</v>
       </c>
       <c r="C63">
-        <v>40.595684277577931</v>
+        <v>41.013618886144997</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -3607,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>33.879732047571153</v>
+        <v>33.2424319371883</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -3629,7 +3797,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>36.229999999999997</v>
+        <v>35.591699203116548</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -3640,7 +3808,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>39.101737043611948</v>
+        <v>39.824463315072947</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -3651,7 +3819,7 @@
         <v>22</v>
       </c>
       <c r="C68">
-        <v>26.75</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -3673,7 +3841,62 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>39.525004759921273</v>
+        <v>39.788894790576009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>40.659999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>37.212584677034627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>34.26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>40.33</v>
       </c>
     </row>
   </sheetData>
@@ -3684,7 +3907,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3698,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -4369,7 +4592,7 @@
         <v>15</v>
       </c>
       <c r="C62">
-        <v>44.22840665559503</v>
+        <v>44.587401454796193</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -4380,7 +4603,7 @@
         <v>21</v>
       </c>
       <c r="C63">
-        <v>46.407272032374088</v>
+        <v>46.014208248866609</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -4391,7 +4614,7 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>36.743149707862749</v>
+        <v>35.565647182309313</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -4413,7 +4636,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>36.06</v>
+        <v>35.51092404569166</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -4424,7 +4647,7 @@
         <v>24</v>
       </c>
       <c r="C67">
-        <v>46.774168904668699</v>
+        <v>47.591093744463429</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -4435,7 +4658,7 @@
         <v>22</v>
       </c>
       <c r="C68">
-        <v>53.85</v>
+        <v>53.18</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -4457,7 +4680,62 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>33.575166510881388</v>
+        <v>34.35989647103537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>45.69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>34.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>41.735349362338198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>51.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>37.700000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4470,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -4479,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4487,7 +4765,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>3131.1117658599578</v>
+        <v>3162.163669018003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -4503,7 +4781,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>3408.7802537277712</v>
+        <v>3429.992003161336</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -4519,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4623.9676921466016</v>
+        <v>4622.9534912785684</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -4543,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4398.8377533400253</v>
+        <v>4380.9088380663816</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -4551,7 +4829,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>3717.7136297694528</v>
+        <v>3672.6914912585048</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -4567,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>3303.516238353684</v>
+        <v>3293.427202690048</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -4583,7 +4861,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>3101.0157504272079</v>
+        <v>3101.540548509573</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -4599,7 +4877,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>3730.5428891861129</v>
+        <v>3748.909686615003</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -4669,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4677,7 +4955,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>5.7286649711242568</v>
+        <v>5.6389553182925072</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -4693,7 +4971,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>5.3051877613663567</v>
+        <v>5.6926674475918624</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -4709,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.3196309737087839</v>
+        <v>5.254361658705859</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -4733,7 +5011,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.947020491264549</v>
+        <v>11.826562250078981</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -4741,7 +5019,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>5.8730003584791524</v>
+        <v>5.9150019757512684</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -4757,7 +5035,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>11.31535582638875</v>
+        <v>11.285184160494881</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -4773,7 +5051,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>4.0527666402700788</v>
+        <v>4.0696756603926003</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -4789,7 +5067,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>6.7987861336213511</v>
+        <v>6.9163101403567566</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -4859,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -4867,7 +5145,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.46362936650807057</v>
+        <v>0.5473030149550081</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -4883,7 +5161,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>2.9411917038622382</v>
+        <v>2.631190052377264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -4899,7 +5177,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.42479399799158768</v>
+        <v>0.42928359552190343</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -4923,7 +5201,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.0509223234984821</v>
+        <v>2.0577191274426991</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -4931,7 +5209,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>1.401622776309009</v>
+        <v>1.4479851192197231</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -4947,7 +5225,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>0.83860817719484082</v>
+        <v>0.82998718821826845</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -4963,7 +5241,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>2.3941311632559499</v>
+        <v>2.3974024153808871</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -4979,7 +5257,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>1.102320305402307</v>
+        <v>1.094993929910308</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -5049,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -5057,7 +5335,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>43.769142508672203</v>
+        <v>43.593790577458122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -5073,7 +5351,7 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>41.503502794947963</v>
+        <v>41.330495325915713</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -5089,7 +5367,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>32.183075396032287</v>
+        <v>32.18747462117701</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -5113,7 +5391,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>35.330989990380253</v>
+        <v>35.327424635387963</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -5121,7 +5399,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>37.816620731857597</v>
+        <v>38.17027309942366</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -5137,7 +5415,7 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <v>24.476252126459919</v>
+        <v>24.549440254249319</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -5153,7 +5431,7 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>33.428304984787218</v>
+        <v>33.454003614993127</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -5169,7 +5447,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>42.505384270284253</v>
+        <v>42.351179508863893</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">

--- a/化验月报汇总分类.xlsx
+++ b/化验月报汇总分类.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3531</v>
+        <v>3361.646365630037</v>
       </c>
     </row>
     <row r="106">
@@ -2051,11 +2051,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2968</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="107">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2081,11 +2081,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4678.984443868292</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="109">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3922</v>
+        <v>4678.984443868292</v>
       </c>
     </row>
     <row r="110">
@@ -2111,11 +2111,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>4055.237642632243</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="111">
@@ -2126,11 +2126,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3552.831265508685</v>
+        <v>4055.237642632243</v>
       </c>
     </row>
     <row r="112">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3094.37875419226</v>
+        <v>3564.429640278368</v>
       </c>
     </row>
     <row r="113">
@@ -2156,11 +2156,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3156.397699172132</v>
+        <v>3230.086796073512</v>
       </c>
     </row>
     <row r="114">
@@ -2171,11 +2171,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3278</v>
+        <v>3184.519176013556</v>
       </c>
     </row>
     <row r="115">
@@ -2186,11 +2186,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3842</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="116">
@@ -2201,11 +2201,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3998</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="117">
@@ -2216,11 +2216,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>5344</v>
+      <c r="C118" t="n">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3816,7 +3831,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7.9</v>
+        <v>7.621904568980955</v>
       </c>
     </row>
     <row r="106">
@@ -3827,11 +3842,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="107">
@@ -3842,7 +3857,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3857,11 +3872,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>4.11146850417904</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="109">
@@ -3872,11 +3887,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6.3</v>
+        <v>4.11146850417904</v>
       </c>
     </row>
     <row r="110">
@@ -3887,11 +3902,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>13.83934414956062</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="111">
@@ -3902,11 +3917,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6.62940446650124</v>
+        <v>13.83934414956062</v>
       </c>
     </row>
     <row r="112">
@@ -3917,11 +3932,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>9.6890341786939</v>
+        <v>6.552974809684059</v>
       </c>
     </row>
     <row r="113">
@@ -3932,11 +3947,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4.913202881410601</v>
+        <v>9.789261200088568</v>
       </c>
     </row>
     <row r="114">
@@ -3947,11 +3962,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7.1</v>
+        <v>5.73047873750706</v>
       </c>
     </row>
     <row r="115">
@@ -3962,11 +3977,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>10.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="116">
@@ -3977,11 +3992,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>10.7</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="117">
@@ -3992,11 +4007,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>5.3</v>
+      <c r="C118" t="n">
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -4010,7 +4040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5592,7 +5622,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.82</v>
+        <v>0.8207202537702973</v>
       </c>
     </row>
     <row r="106">
@@ -5603,11 +5633,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.86</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="107">
@@ -5618,7 +5648,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -5633,11 +5663,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.6228956857126819</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="109">
@@ -5648,11 +5678,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.8</v>
+        <v>0.6228956857126819</v>
       </c>
     </row>
     <row r="110">
@@ -5663,11 +5693,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1.795655678519326</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="111">
@@ -5678,11 +5708,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.378287841191067</v>
+        <v>1.795655678519326</v>
       </c>
     </row>
     <row r="112">
@@ -5693,11 +5723,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.6508224365979577</v>
+        <v>1.353827229065246</v>
       </c>
     </row>
     <row r="113">
@@ -5708,11 +5738,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4.231214385549942</v>
+        <v>0.6310738799911434</v>
       </c>
     </row>
     <row r="114">
@@ -5723,11 +5753,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.82</v>
+        <v>4.28913024934005</v>
       </c>
     </row>
     <row r="115">
@@ -5738,11 +5768,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="116">
@@ -5753,11 +5783,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.6700000000000002</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="117">
@@ -5768,11 +5798,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.6700000000000002</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>3.73</v>
+      <c r="C118" t="n">
+        <v>3.82</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +5831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7368,7 +7413,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>42.6</v>
+        <v>42.73613700484113</v>
       </c>
     </row>
     <row r="106">
@@ -7379,11 +7424,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>32.68</v>
+        <v>43.23</v>
       </c>
     </row>
     <row r="107">
@@ -7394,7 +7439,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -7409,11 +7454,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>31.7820757546194</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="109">
@@ -7424,11 +7469,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>35</v>
+        <v>31.7820757546194</v>
       </c>
     </row>
     <row r="110">
@@ -7439,11 +7484,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>35.50499982807995</v>
+        <v>35.45</v>
       </c>
     </row>
     <row r="111">
@@ -7454,11 +7499,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>40.53785359801489</v>
+        <v>35.50499982807995</v>
       </c>
     </row>
     <row r="112">
@@ -7469,11 +7514,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>26.78920281116931</v>
+        <v>40.47003430587774</v>
       </c>
     </row>
     <row r="113">
@@ -7484,11 +7529,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>33.90532200838619</v>
+        <v>26.37951878367408</v>
       </c>
     </row>
     <row r="114">
@@ -7499,11 +7544,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>43.95</v>
+        <v>33.68312222619281</v>
       </c>
     </row>
     <row r="115">
@@ -7514,11 +7559,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>42.91</v>
+        <v>43.95</v>
       </c>
     </row>
     <row r="116">
@@ -7529,11 +7574,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>41.44</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="117">
@@ -7544,11 +7589,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>41.44</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>13.48</v>
+      <c r="C118" t="n">
+        <v>13.39</v>
       </c>
     </row>
   </sheetData>
@@ -7562,7 +7622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9144,7 +9204,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>44.02999999999999</v>
+        <v>46.37941162223338</v>
       </c>
     </row>
     <row r="106">
@@ -9155,11 +9215,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>53.9</v>
+        <v>49.47</v>
       </c>
     </row>
     <row r="107">
@@ -9170,7 +9230,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -9185,11 +9245,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>33.74873364534692</v>
+        <v>53.9</v>
       </c>
     </row>
     <row r="109">
@@ -9200,11 +9260,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>41.97</v>
+        <v>33.74873364534692</v>
       </c>
     </row>
     <row r="110">
@@ -9215,11 +9275,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>36.36655816055368</v>
+        <v>41.91</v>
       </c>
     </row>
     <row r="111">
@@ -9230,11 +9290,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>46.32495037220843</v>
+        <v>36.36655816055368</v>
       </c>
     </row>
     <row r="112">
@@ -9245,11 +9305,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>52.66443682405698</v>
+        <v>46.21628712386056</v>
       </c>
     </row>
     <row r="113">
@@ -9260,11 +9320,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>51.04987797011074</v>
+        <v>50.96309247914976</v>
       </c>
     </row>
     <row r="114">
@@ -9275,11 +9335,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>47.65</v>
+        <v>50.5577550173489</v>
       </c>
     </row>
     <row r="115">
@@ -9290,11 +9350,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>38.03</v>
+        <v>47.65</v>
       </c>
     </row>
     <row r="116">
@@ -9305,11 +9365,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>36.07</v>
+        <v>37.7</v>
       </c>
     </row>
     <row r="117">
@@ -9320,11 +9380,26 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>36.07</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>27.61</v>
+      <c r="C118" t="n">
+        <v>27.86</v>
       </c>
     </row>
   </sheetData>
@@ -9338,7 +9413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9385,7 +9460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3513.767308624388</v>
+        <v>3363.059427010603</v>
       </c>
     </row>
     <row r="5">
@@ -9411,291 +9486,301 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2998.696565455677</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2968</v>
+        <v>2998.696565455677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4625.146945917732</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3953.186351622778</v>
+        <v>4625.146945917732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3936.807043432354</v>
+        <v>3953.186351622778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3989.503855935527</v>
+        <v>3944.942979527143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿</t>
+          <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4376.30994862608</v>
+        <v>3989.503855935527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4016.449970284516</v>
+        <v>4376.30994862608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3627.197144200145</v>
+        <v>4016.449970284516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3608.059579209543</v>
+        <v>3627.197144200145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>山西焦煤物流有限责任公司</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4144.070088062654</v>
+        <v>3614.08800603016</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业</t>
+          <t>山西焦煤物流有限责任公司</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3282.717605233383</v>
+        <v>4144.070088062654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤集团杜家沟煤业</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3318.327075371854</v>
+        <v>3282.717605233383</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>山西焦煤集团金辛达煤业</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3890.733987649052</v>
+        <v>3346.939994188299</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
+          <t>山西焦煤集团金辛达煤业</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3097.885695971361</v>
+        <v>3890.733987649052</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3220.63669133241</v>
+        <v>3097.885695971361</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团四明山煤业有限公司</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4637</v>
+        <v>3230.63849274799</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司</t>
+          <t>山西煤炭运销集团四明山煤业有限公司</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2856.44520846768</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3278</v>
+        <v>2856.44520846768</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3806.749955438297</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3086</v>
+        <v>3808.95344552794</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团野川有限公司</t>
+          <t>山西煤炭运销集团莲盛有限公司2025</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4241.671474936892</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>忻州公司王家岭煤业</t>
+          <t>山西煤炭运销集团野川有限公司</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3710.614528453835</v>
+        <v>4241.671474936892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司</t>
+          <t>忻州公司王家岭煤业</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3913</v>
+        <v>3710.614528453835</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>晋能控股煤业集团圣厚源煤业有限公司</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3998</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4917.415450809377</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>阳泉煤业集团翼城东沟煤业有限公司</t>
+          <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4017.513345634161</v>
+        <v>4917.415450809377</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+          <t>阳泉煤业集团翼城东沟煤业有限公司</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3506.122411155813</v>
+        <v>4017.513345634161</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3506.122411155813</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>5344</v>
+      <c r="B36" t="n">
+        <v>5305</v>
       </c>
     </row>
   </sheetData>
@@ -9709,7 +9794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9756,7 +9841,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.717401945688877</v>
+        <v>7.520130050781046</v>
       </c>
     </row>
     <row r="5">
@@ -9782,291 +9867,301 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.09641496797483</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.6</v>
+        <v>5.09641496797483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.327336927693745</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.979849757840386</v>
+        <v>5.327336927693745</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.527800668190072</v>
+        <v>5.979849757840386</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.921929723007517</v>
+        <v>6.49619863514283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿</t>
+          <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.87999733881149</v>
+        <v>9.921929723007517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.53779524085114</v>
+        <v>11.87999733881149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.001514907332796</v>
+        <v>13.53779524085114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.972830269946346</v>
+        <v>6.001514907332796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>山西焦煤物流有限责任公司</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.999780974804209</v>
+        <v>6.907706508149293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业</t>
+          <t>山西焦煤物流有限责任公司</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.23799946012073</v>
+        <v>6.999780974804209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤集团杜家沟煤业</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.262987138246901</v>
+        <v>11.23799946012073</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>山西焦煤集团金辛达煤业</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.873422919300167</v>
+        <v>9.326142967841923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
+          <t>山西焦煤集团金辛达煤业</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.226327812246774</v>
+        <v>4.873422919300167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.264463602161481</v>
+        <v>4.226327812246774</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团四明山煤业有限公司</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.6</v>
+        <v>5.668747722358543</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司</t>
+          <t>山西煤炭运销集团四明山煤业有限公司</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.584033139909804</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.1</v>
+        <v>8.584033139909804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.430596753816895</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.800000000000001</v>
+        <v>7.450402027509993</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团野川有限公司</t>
+          <t>山西煤炭运销集团莲盛有限公司2025</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.779363505228995</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>忻州公司王家岭煤业</t>
+          <t>山西煤炭运销集团野川有限公司</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.537527049124899</v>
+        <v>6.779363505228995</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司</t>
+          <t>忻州公司王家岭煤业</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.3</v>
+        <v>5.537527049124899</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>晋能控股煤业集团圣厚源煤业有限公司</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.411201320994229</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>阳泉煤业集团翼城东沟煤业有限公司</t>
+          <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.815962043159861</v>
+        <v>4.411201320994229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+          <t>阳泉煤业集团翼城东沟煤业有限公司</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.48511130592898</v>
+        <v>4.815962043159861</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.48511130592898</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>5.3</v>
+      <c r="B36" t="n">
+        <v>5.8</v>
       </c>
     </row>
   </sheetData>
@@ -10080,7 +10175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10127,7 +10222,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7869041026561089</v>
+        <v>0.7983374627181138</v>
       </c>
     </row>
     <row r="5">
@@ -10153,291 +10248,301 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.284254241024391</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.86</v>
+        <v>2.284254241024391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4554181140184971</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.586362501785632</v>
+        <v>0.4554181140184971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.714574749428723</v>
+        <v>1.586362501785632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.821855517255545</v>
+        <v>1.700950341214292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿</t>
+          <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.046258797337513</v>
+        <v>2.821855517255545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.877885788731992</v>
+        <v>2.046258797337513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.517409865315989</v>
+        <v>1.877885788731992</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.353174655193401</v>
+        <v>1.517409865315989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>山西焦煤物流有限责任公司</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.700350440313266</v>
+        <v>1.337180494057856</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业</t>
+          <t>山西焦煤物流有限责任公司</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8063582041547729</v>
+        <v>1.700350440313266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤集团杜家沟煤业</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6502275701348738</v>
+        <v>0.8063582041547729</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>山西焦煤集团金辛达煤业</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.007343258105812</v>
+        <v>0.6437904397520341</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
+          <t>山西焦煤集团金辛达煤业</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.648307179226686</v>
+        <v>2.007343258105812</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.708916764607395</v>
+        <v>2.648307179226686</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团四明山煤业有限公司</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.43</v>
+        <v>3.778581120478123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司</t>
+          <t>山西煤炭运销集团四明山煤业有限公司</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.051596686009019</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.82</v>
+        <v>1.051596686009019</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.07101962726768</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.98</v>
+        <v>1.066640154301006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团野川有限公司</t>
+          <t>山西煤炭运销集团莲盛有限公司2025</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4065605842048323</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>忻州公司王家岭煤业</t>
+          <t>山西煤炭运销集团野川有限公司</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4533941272661327</v>
+        <v>0.4065605842048323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司</t>
+          <t>忻州公司王家岭煤业</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.09</v>
+        <v>0.4533941272661327</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>晋能控股煤业集团圣厚源煤业有限公司</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6700000000000002</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.304430468611315</v>
+        <v>0.6700000000000002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>阳泉煤业集团翼城东沟煤业有限公司</t>
+          <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.277420149672805</v>
+        <v>3.304430468611315</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+          <t>阳泉煤业集团翼城东沟煤业有限公司</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.133087880459041</v>
+        <v>2.277420149672805</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3.133087880459041</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>3.73</v>
+      <c r="B36" t="n">
+        <v>3.82</v>
       </c>
     </row>
   </sheetData>
@@ -10451,7 +10556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10498,7 +10603,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.46191022142722</v>
+        <v>42.63249681150676</v>
       </c>
     </row>
     <row r="5">
@@ -10524,291 +10629,301 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿</t>
+          <t>大同煤矿集团轩岗煤电有限责任公司梨园河煤矿2025</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.64102313185978</v>
+        <v>43.23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.68</v>
+        <v>32.64102313185978</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>太原煤气化龙泉能源</t>
+          <t>太原煤气化股份有限公司炉峪口煤矿2025</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.26391231043494</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司</t>
+          <t>太原煤气化龙泉能源</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.73369677457728</v>
+        <v>32.26391231043494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.40434618603738</v>
+        <v>32.73369677457728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
+          <t>山西乡宁焦煤集团富康源煤业有限公司2025</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.93018747502511</v>
+        <v>35.57752911284284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿</t>
+          <t>山西晋煤集团临汾晋牛煤矿投资有限公司</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.30967981358699</v>
+        <v>30.93018747502511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.79978334946706</v>
+        <v>35.30967981358699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业</t>
+          <t>山西汾河焦煤股份有限公司三交河煤矿2025</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.37159618779017</v>
+        <v>35.79978334946706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.96113783836928</v>
+        <v>38.37159618779017</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>山西焦煤物流有限责任公司</t>
+          <t>山西焦煤汾西矿业昊兴塬煤业2025</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>39.10045522718734</v>
+        <v>39.93499984202426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业</t>
+          <t>山西焦煤物流有限责任公司</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24.9792674527462</v>
+        <v>39.10045522718734</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>山西焦煤集团杜家沟煤业2025</t>
+          <t>山西焦煤集团杜家沟煤业</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.3124029633646</v>
+        <v>24.9792674527462</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>山西焦煤集团金辛达煤业</t>
+          <t>山西焦煤集团杜家沟煤业2025</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.98558892440479</v>
+        <v>26.21186579814026</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
+          <t>山西焦煤集团金辛达煤业</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33.57664603062298</v>
+        <v>29.98558892440479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.44229726269344</v>
+        <v>33.57664603062298</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团四明山煤业有限公司</t>
+          <t>山西焦煤霍州煤电雪坪煤业有限公司2025</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.44</v>
+        <v>33.35992911979787</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司</t>
+          <t>山西煤炭运销集团四明山煤业有限公司</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44.84437017408118</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.95</v>
+        <v>44.84437017408118</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司</t>
+          <t>山西煤炭运销集团石碣峪煤业有限公司2025</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.04934290248601</v>
+        <v>43.95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团莲盛有限公司2025</t>
+          <t>山西煤炭运销集团莲盛有限公司</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>43.37</v>
+        <v>42.03976700800476</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>山西煤炭运销集团野川有限公司</t>
+          <t>山西煤炭运销集团莲盛有限公司2025</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17.66053371799496</v>
+        <v>43.37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>忻州公司王家岭煤业</t>
+          <t>山西煤炭运销集团野川有限公司</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>39.38918702010857</v>
+        <v>17.66053371799496</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司</t>
+          <t>忻州公司王家岭煤业</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42.25</v>
+        <v>39.38918702010857</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
+          <t>晋能控股煤业集团圣厚源煤业有限公司</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.44</v>
+        <v>42.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
+          <t>晋能控股煤业集团圣厚源煤业有限公司2025</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.04638060174905</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>阳泉煤业集团翼城东沟煤业有限公司</t>
+          <t>晋能控股煤业集团翼城华泓煤业有限公司</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.14333050643502</v>
+        <v>15.04638060174905</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+          <t>阳泉煤业集团翼城东沟煤业有限公司</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.92768213473505</v>
+        <v>16.14333050643502</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>阳泉煤业集团翼城山凹煤业有限公司</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>21.92768213473505</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>阳泉煤业集团翼城山凹煤业有限公司2025</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>13.48</v>
+      <c r="B36" t="n">
+        <v>13.39</v>
       </c>
     </row>
   </sheetData>
